--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/csvtojson/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8598F772-32F9-5942-832F-6ECBBF3F42E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAE89FE-3FB1-D641-87D4-90A62E3171A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-2700" windowWidth="68800" windowHeight="26780" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -433,31 +433,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Please Enter the Catalog External Location Name
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Example: s3:/$bucketname/$folder</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Please Enter the Group Name for Catalog Access
 </t>
   </si>
@@ -550,6 +525,31 @@
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>Example: s3://bucketname/folder</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please Enter the Catalog External Location Name (optional)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example: s3:/$bucketname/$folder</t>
     </r>
     <r>
       <rPr>
@@ -1475,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1571,15 +1571,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="G6" s="3"/>
+    <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>environment</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B6" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B5" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>create_or_delete</formula1>
     </dataValidation>
   </dataValidations>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1617,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>39</v>
@@ -1718,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A7808D-A73D-1544-BAB5-AC1CAF03F364}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1746,13 +1746,13 @@
         <v>60</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1778,7 +1778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1868,10 +1868,10 @@
         <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>45</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAE89FE-3FB1-D641-87D4-90A62E3171A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D5670-36B7-8345-A072-1AA54E145B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:G1"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1719,7 +1719,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368D5670-36B7-8345-A072-1AA54E145B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A702C5-25A4-494B-9287-25420AB05C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B3B72-2CD7-A146-8349-E53D02E438F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A702C5-25A4-494B-9287-25420AB05C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDB360F-19BD-2744-8ECE-A34910DD8E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -195,9 +195,6 @@
 ]</t>
   </si>
   <si>
-    <t>dbx-sc1</t>
-  </si>
-  <si>
     <t>dbx-sc2</t>
   </si>
   <si>
@@ -561,6 +558,9 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>dbx-sc3</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -1591,8 +1591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B3B72-2CD7-A146-8349-E53D02E438F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,16 +1614,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>16</v>
@@ -1640,16 +1640,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="175" x14ac:dyDescent="0.3">
@@ -1660,10 +1660,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
@@ -1672,7 +1672,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1683,13 +1683,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -1719,7 +1719,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,19 +1740,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1763,19 +1763,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -1786,17 +1786,17 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1807,10 +1807,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
@@ -1840,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,25 +1865,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="375" x14ac:dyDescent="0.3">
@@ -1923,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
@@ -1941,7 +1941,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.3">
@@ -1952,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDB360F-19BD-2744-8ECE-A34910DD8E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EAF362-546A-7646-AC20-7B86469C850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
   <si>
     <t>resource_name</t>
   </si>
@@ -193,9 +193,6 @@
    "READ_FILES",
    "WRITE_FILES"
 ]</t>
-  </si>
-  <si>
-    <t>dbx-sc2</t>
   </si>
   <si>
     <r>
@@ -560,7 +557,7 @@
     </r>
   </si>
   <si>
-    <t>dbx-sc3</t>
+    <t>dbx-sc1</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1475,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1539,7 +1536,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -1559,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>17</v>
@@ -1591,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B3B72-2CD7-A146-8349-E53D02E438F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1614,16 +1611,16 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>16</v>
@@ -1640,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="175" x14ac:dyDescent="0.3">
@@ -1660,19 +1657,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1683,13 +1680,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>
@@ -1740,19 +1737,19 @@
         <v>12</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1763,19 +1760,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -1786,17 +1783,17 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1807,10 +1804,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
@@ -1840,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,25 +1862,25 @@
         <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>64</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -1897,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="375" x14ac:dyDescent="0.3">
@@ -1923,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>20</v>
@@ -1941,7 +1938,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.3">
@@ -1952,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>20</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EAF362-546A-7646-AC20-7B86469C850C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484857E-C0B9-054E-BBDE-6F0FEB37BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1533,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>66</v>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>66</v>
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B3B72-2CD7-A146-8349-E53D02E438F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>32</v>
@@ -1677,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>40</v>
@@ -1716,7 +1716,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>55</v>
@@ -1801,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>54</v>
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>48</v>
@@ -1946,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>49</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4484857E-C0B9-054E-BBDE-6F0FEB37BB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD78D32-F421-D949-AB02-7706D8C2F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>create</t>
   </si>
   <si>
-    <t>delete</t>
-  </si>
-  <si>
     <t>***select environment***</t>
   </si>
   <si>
@@ -558,6 +555,9 @@
   </si>
   <si>
     <t>dbx-sc1</t>
+  </si>
+  <si>
+    <t>destroy</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1490,22 +1490,22 @@
   <sheetData>
     <row r="1" spans="1:7" ht="82" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="24" x14ac:dyDescent="0.3">
@@ -1522,7 +1522,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -1533,19 +1533,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="75" x14ac:dyDescent="0.3">
@@ -1553,19 +1553,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -1605,25 +1605,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="82" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1637,16 +1637,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="175" x14ac:dyDescent="0.3">
@@ -1654,22 +1654,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1677,22 +1677,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1731,25 +1731,25 @@
   <sheetData>
     <row r="1" spans="1:8" ht="82" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1760,19 +1760,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -1780,20 +1780,20 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1801,20 +1801,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1856,31 +1856,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="82" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="375" x14ac:dyDescent="0.3">
@@ -1917,28 +1917,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.3">
@@ -1946,28 +1946,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2003,13 +2003,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2028,10 +2028,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,17 +2039,17 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD78D32-F421-D949-AB02-7706D8C2F3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C828F3-B781-0548-B0BF-A283D1251280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1475,7 +1475,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1533,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>65</v>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>65</v>
@@ -1654,7 +1654,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>31</v>
@@ -1677,7 +1677,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>39</v>
@@ -1780,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>54</v>
@@ -1801,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>53</v>
@@ -1917,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>47</v>
@@ -1946,7 +1946,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>48</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C828F3-B781-0548-B0BF-A283D1251280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035853CC-16BD-DF40-B341-C5B54480B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
   <si>
     <t>resource_name</t>
   </si>
@@ -558,6 +558,9 @@
   </si>
   <si>
     <t>destroy</t>
+  </si>
+  <si>
+    <t>dbx-sc2</t>
   </si>
 </sst>
 </file>
@@ -1475,7 +1478,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1559,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -1589,7 +1592,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1686,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
@@ -1715,8 +1718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A7808D-A73D-1544-BAB5-AC1CAF03F364}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1837,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035853CC-16BD-DF40-B341-C5B54480B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34038278-8779-A74C-9C5F-0603837E4CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
   <si>
     <t>resource_name</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>dbx-sc2</t>
+  </si>
+  <si>
+    <t>dbx-el3</t>
+  </si>
+  <si>
+    <t>s3://dbx-prod-buckets</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1484,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B3B72-2CD7-A146-8349-E53D02E438F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1698,6 +1704,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="H6" s="3"/>
     </row>
@@ -1718,8 +1747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A7808D-A73D-1544-BAB5-AC1CAF03F364}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34038278-8779-A74C-9C5F-0603837E4CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914D0E85-FBB6-F44B-B443-23521BCF240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -1598,7 +1598,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914D0E85-FBB6-F44B-B443-23521BCF240F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AC9B40-FBDC-A74D-98B6-5BB907D40034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -230,9 +230,6 @@
     <t>s3://dbx-dev-bucket</t>
   </si>
   <si>
-    <t>dbx-el1</t>
-  </si>
-  <si>
     <t>el_s3_url</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
 ]</t>
   </si>
   <si>
-    <t>dbx-el2</t>
-  </si>
-  <si>
     <t>el_resource_name</t>
   </si>
   <si>
@@ -286,12 +280,6 @@
   </si>
   <si>
     <t>schema_principal_name</t>
-  </si>
-  <si>
-    <t>dbx-schema1</t>
-  </si>
-  <si>
-    <t>dbx-schema2</t>
   </si>
   <si>
     <r>
@@ -353,12 +341,6 @@
    "CREATE_TABLE",
    "CREATE_VOLUME"
 ]</t>
-  </si>
-  <si>
-    <t>dbx-catalog2</t>
-  </si>
-  <si>
-    <t>dbx-catalog1</t>
   </si>
   <si>
     <t>catalog_metastore_id</t>
@@ -554,19 +536,37 @@
     </r>
   </si>
   <si>
-    <t>dbx-sc1</t>
-  </si>
-  <si>
     <t>destroy</t>
   </si>
   <si>
-    <t>dbx-sc2</t>
-  </si>
-  <si>
-    <t>dbx-el3</t>
-  </si>
-  <si>
-    <t>s3://dbx-prod-buckets</t>
+    <t>s3://dbx-prod-bucket</t>
+  </si>
+  <si>
+    <t>dbx-sc-1</t>
+  </si>
+  <si>
+    <t>dbx-sc-2</t>
+  </si>
+  <si>
+    <t>dbx-el-1</t>
+  </si>
+  <si>
+    <t>dbx-el-2</t>
+  </si>
+  <si>
+    <t>dbx-el-3</t>
+  </si>
+  <si>
+    <t>dbx-catalog-1</t>
+  </si>
+  <si>
+    <t>dbx-catalog-2</t>
+  </si>
+  <si>
+    <t>dbx-schema-1</t>
+  </si>
+  <si>
+    <t>dbx-schema-2</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1484,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1545,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>16</v>
@@ -1565,7 +1565,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>16</v>
@@ -1597,8 +1597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6B3B72-2CD7-A146-8349-E53D02E438F3}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1623,13 +1623,13 @@
         <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>15</v>
@@ -1646,16 +1646,16 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="175" x14ac:dyDescent="0.3">
@@ -1666,19 +1666,19 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1689,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
@@ -1712,13 +1712,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>19</v>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1769,19 +1769,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="24" x14ac:dyDescent="0.3">
@@ -1792,19 +1792,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
@@ -1815,17 +1815,17 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.3">
@@ -1836,10 +1836,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1897,22 +1897,22 @@
         <v>28</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="24" x14ac:dyDescent="0.3">
@@ -1926,22 +1926,22 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="375" x14ac:dyDescent="0.3">
@@ -1952,13 +1952,13 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>19</v>
@@ -1970,7 +1970,7 @@
         <v>19</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.3">
@@ -1981,13 +1981,13 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>19</v>
@@ -2060,7 +2060,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92AC9B40-FBDC-A74D-98B6-5BB907D40034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC84C64-8900-9048-ADB4-8CA81250658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>resource_name</t>
   </si>
@@ -567,6 +567,9 @@
   </si>
   <si>
     <t>dbx-schema-2</t>
+  </si>
+  <si>
+    <t>dedc0345-c2c5-475c-8cf3-262335cbcbcd</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +1751,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1807,7 +1810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -1815,7 +1818,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>66</v>
@@ -1836,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>67</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC84C64-8900-9048-ADB4-8CA81250658B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BFE30-8082-1C49-8434-45EAE02947F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -1486,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>61</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>62</v>
@@ -1601,7 +1601,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1666,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>63</v>
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>64</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>65</v>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1810,12 +1810,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>70</v>
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>70</v>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>68</v>
@@ -1981,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>69</v>

--- a/xlsxtojson/input.xlsx
+++ b/xlsxtojson/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robert.altmiller/repos/projects/github/terraform/terraform_template_config/xlsxtojson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9BFE30-8082-1C49-8434-45EAE02947F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165ECE9C-AAA6-3A42-BCCA-E4EA3E2AD725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="storage_credentials" sheetId="3" r:id="rId1"/>
@@ -1486,7 +1486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>61</v>
@@ -1565,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>62</v>
@@ -1666,7 +1666,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>63</v>
@@ -1689,7 +1689,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>64</v>
@@ -1712,7 +1712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>65</v>
@@ -1815,7 +1815,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>70</v>
@@ -1836,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>70</v>
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550E2633-B106-2944-A623-5D814367C085}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1952,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>68</v>
@@ -1981,7 +1981,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>69</v>
